--- a/Crawling/music/crawled_data/live_flo/live_flo_20220503_110005.xlsx
+++ b/Crawling/music/crawled_data/live_flo/live_flo_20220503_110005.xlsx
@@ -34,7 +34,7 @@
     <t>앨범</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-05-03</t>
